--- a/SectionA/Data_driven/Login/SecA_login_data.xlsx
+++ b/SectionA/Data_driven/Login/SecA_login_data.xlsx
@@ -65,9 +65,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,7 +350,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -382,7 +383,7 @@
           <t>trungkien</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -402,7 +403,7 @@
           <t>kien1111</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>23134123</v>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -422,7 +423,7 @@
           <t>trungkien</t>
         </is>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>23134123</v>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -442,7 +443,7 @@
           <t>trungkien</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n"/>
+      <c r="B5" s="2" t="n"/>
       <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Invalid</t>
@@ -460,7 +461,7 @@
           <t>trungkien1</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n"/>
+      <c r="B6" s="2" t="n"/>
       <c r="C6" s="1" t="inlineStr">
         <is>
           <t>Invalid</t>
@@ -474,7 +475,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -490,7 +491,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>321321</v>
       </c>
       <c r="C8" s="1" t="inlineStr">
@@ -506,7 +507,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
+      <c r="B9" s="2" t="n"/>
       <c r="C9" s="1" t="inlineStr">
         <is>
           <t>Invalid</t>
@@ -524,7 +525,7 @@
           <t>trungkien</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>abcdef</t>
         </is>
@@ -546,7 +547,7 @@
           <t>testing12345</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>abcdef</t>
         </is>
@@ -564,7 +565,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>abcdef</t>
         </is>
@@ -586,7 +587,7 @@
           <t>abcdef</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="C13" s="1" t="inlineStr">
